--- a/01 Dataset eBook untuk Project CSC575.xlsx
+++ b/01 Dataset eBook untuk Project CSC575.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eBOOK Novel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\TrackingReads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0F29B-2A35-436D-B04B-D2FD5C1C9B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBE5DDE-987B-46F3-A4D5-7E47F88A3343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E8E8E9E0-01F5-49B5-B210-18287BE6026F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E8E8E9E0-01F5-49B5-B210-18287BE6026F}"/>
   </bookViews>
   <sheets>
     <sheet name="eBOOK" sheetId="1" r:id="rId1"/>
@@ -7613,26 +7613,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95D644-B44A-49FA-B0E8-26B352BCFEC5}">
   <dimension ref="A1:J1048358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J399" sqref="J399:J410"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="48.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -10308,7 +10308,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -10328,7 +10328,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -10348,7 +10348,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -10368,7 +10368,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -10408,7 +10408,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -10428,7 +10428,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -10448,7 +10448,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -10508,7 +10508,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -10588,7 +10588,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -10608,7 +10608,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -10628,7 +10628,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -10648,7 +10648,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -10668,7 +10668,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -10688,7 +10688,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -10748,7 +10748,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -10768,7 +10768,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -10808,7 +10808,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -10868,7 +10868,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -10888,7 +10888,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -10924,7 +10924,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -10960,7 +10960,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10996,7 +10996,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -15894,7 +15894,7 @@
       <c r="I362" s="3"/>
       <c r="J362" s="2"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="I363" s="3"/>
       <c r="J363" s="2"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -15930,7 +15930,7 @@
       <c r="I364" s="3"/>
       <c r="J364" s="2"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -15948,7 +15948,7 @@
       <c r="I365" s="3"/>
       <c r="J365" s="2"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -15966,7 +15966,7 @@
       <c r="I366" s="3"/>
       <c r="J366" s="2"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -15984,7 +15984,7 @@
       <c r="I367" s="3"/>
       <c r="J367" s="2"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -16002,7 +16002,7 @@
       <c r="I368" s="3"/>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -16020,7 +16020,7 @@
       <c r="I369" s="3"/>
       <c r="J369" s="2"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -16038,7 +16038,7 @@
       <c r="I370" s="3"/>
       <c r="J370" s="2"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="I371" s="3"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -16074,7 +16074,7 @@
       <c r="I372" s="3"/>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -16092,7 +16092,7 @@
       <c r="I373" s="3"/>
       <c r="J373" s="2"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -16110,7 +16110,7 @@
       <c r="I374" s="3"/>
       <c r="J374" s="2"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -16128,7 +16128,7 @@
       <c r="I375" s="3"/>
       <c r="J375" s="2"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -16904,7 +16904,7 @@
       </c>
       <c r="J412" s="2"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="J413" s="2"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="J414" s="2"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="J415" s="2"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -17000,7 +17000,7 @@
       </c>
       <c r="J416" s="2"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -17024,7 +17024,7 @@
       </c>
       <c r="J417" s="2"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="J418" s="2"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="J419" s="2"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="J420" s="2"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -17120,7 +17120,7 @@
       </c>
       <c r="J421" s="2"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="J422" s="2"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -17168,7 +17168,7 @@
       </c>
       <c r="J423" s="2"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="J424" s="2"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="J425" s="2"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="J426" s="2"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="J427" s="2"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -17288,7 +17288,7 @@
       </c>
       <c r="J428" s="2"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -17338,7 +17338,7 @@
       </c>
       <c r="J430" s="2"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="I431" s="3"/>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -17382,7 +17382,7 @@
       <c r="I432" s="3"/>
       <c r="J432" s="2"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -17404,7 +17404,7 @@
       <c r="I433" s="3"/>
       <c r="J433" s="2"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -17426,7 +17426,7 @@
       <c r="I434" s="3"/>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -17448,7 +17448,7 @@
       <c r="I435" s="3"/>
       <c r="J435" s="2"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -17470,7 +17470,7 @@
       <c r="I436" s="3"/>
       <c r="J436" s="2"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -17492,7 +17492,7 @@
       <c r="I437" s="3"/>
       <c r="J437" s="2"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="I438" s="3"/>
       <c r="J438" s="2"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -17536,7 +17536,7 @@
       <c r="I439" s="3"/>
       <c r="J439" s="2"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -17558,7 +17558,7 @@
       <c r="I440" s="3"/>
       <c r="J440" s="2"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -17580,7 +17580,7 @@
       <c r="I441" s="3"/>
       <c r="J441" s="2"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -17602,7 +17602,7 @@
       <c r="I442" s="3"/>
       <c r="J442" s="2"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -17624,7 +17624,7 @@
       <c r="I443" s="3"/>
       <c r="J443" s="2"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -17646,7 +17646,7 @@
       <c r="I444" s="3"/>
       <c r="J444" s="2"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -17964,7 +17964,7 @@
       <c r="I459" s="3"/>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -17982,7 +17982,7 @@
       <c r="I460" s="3"/>
       <c r="J460" s="2"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -18002,7 +18002,7 @@
       <c r="I461" s="3"/>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -18022,7 +18022,7 @@
       <c r="I462" s="3"/>
       <c r="J462" s="2"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -18044,7 +18044,7 @@
       <c r="I463" s="3"/>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -18064,7 +18064,7 @@
       <c r="I464" s="3"/>
       <c r="J464" s="2"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -18084,7 +18084,7 @@
       <c r="I465" s="3"/>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -18104,7 +18104,7 @@
       <c r="I466" s="3"/>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -18124,7 +18124,7 @@
       <c r="I467" s="3"/>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -18144,7 +18144,7 @@
       <c r="I468" s="3"/>
       <c r="J468" s="2"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -18164,7 +18164,7 @@
       <c r="I469" s="3"/>
       <c r="J469" s="2"/>
     </row>
-    <row r="1048358" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="1048358" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F1048358" s="3" t="s">
         <v>41</v>
       </c>
@@ -18180,21 +18180,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F799EE72-2BC9-440F-9542-69429651C656}">
   <dimension ref="A1:D600"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="130.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="130.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18220,7 +18220,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -18248,7 +18248,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -18262,7 +18262,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -18318,7 +18318,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -18332,7 +18332,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -18346,7 +18346,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -18374,7 +18374,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -18402,7 +18402,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -18458,7 +18458,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -18514,7 +18514,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -19358,7 +19358,7 @@
       </c>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -19386,7 +19386,7 @@
       </c>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -19442,7 +19442,7 @@
       </c>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -19484,7 +19484,7 @@
       </c>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -19512,7 +19512,7 @@
       </c>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -19526,7 +19526,7 @@
       </c>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -19554,7 +19554,7 @@
       </c>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -19776,7 +19776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -19934,7 +19934,7 @@
       </c>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -19948,7 +19948,7 @@
       </c>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -20032,7 +20032,7 @@
       </c>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -20046,7 +20046,7 @@
       </c>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -20060,7 +20060,7 @@
       </c>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -20074,7 +20074,7 @@
       </c>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -20088,7 +20088,7 @@
       </c>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -20102,7 +20102,7 @@
       </c>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -20116,7 +20116,7 @@
       </c>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -20130,7 +20130,7 @@
       </c>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -20144,7 +20144,7 @@
       </c>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -20158,7 +20158,7 @@
       </c>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -20394,7 +20394,7 @@
       </c>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -20422,7 +20422,7 @@
       </c>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -20450,7 +20450,7 @@
       </c>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -20464,7 +20464,7 @@
       </c>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -20634,7 +20634,7 @@
       </c>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -20648,7 +20648,7 @@
       </c>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -20662,7 +20662,7 @@
       </c>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -20676,7 +20676,7 @@
       </c>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -20690,7 +20690,7 @@
       </c>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -20704,7 +20704,7 @@
       </c>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -20718,7 +20718,7 @@
       </c>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -20732,7 +20732,7 @@
       </c>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -20746,7 +20746,7 @@
       </c>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -20790,7 +20790,7 @@
       </c>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -20832,7 +20832,7 @@
       </c>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -20860,7 +20860,7 @@
       </c>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -20874,7 +20874,7 @@
       </c>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -20902,7 +20902,7 @@
       </c>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -20930,7 +20930,7 @@
       </c>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -21014,7 +21014,7 @@
       </c>
       <c r="D188" s="7"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -21028,7 +21028,7 @@
       </c>
       <c r="D189" s="7"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="D190" s="7"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="D191" s="7"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -21070,7 +21070,7 @@
       </c>
       <c r="D192" s="7"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="D193" s="7"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -21098,7 +21098,7 @@
       </c>
       <c r="D194" s="7"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -21112,7 +21112,7 @@
       </c>
       <c r="D195" s="7"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="D196" s="7"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="D197" s="7"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -21154,7 +21154,7 @@
       </c>
       <c r="D198" s="7"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -21168,7 +21168,7 @@
       </c>
       <c r="D199" s="7"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -21182,7 +21182,7 @@
       </c>
       <c r="D200" s="7"/>
     </row>
-    <row r="201" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -21262,7 +21262,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -21326,7 +21326,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="D221" s="7"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="D222" s="7"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="D223" s="7"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -21558,7 +21558,7 @@
       </c>
       <c r="D224" s="7"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="D225" s="7"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -21586,7 +21586,7 @@
       </c>
       <c r="D226" s="7"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="D227" s="7"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -21614,7 +21614,7 @@
       </c>
       <c r="D228" s="7"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="D229" s="7"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -21642,7 +21642,7 @@
       </c>
       <c r="D230" s="7"/>
     </row>
-    <row r="231" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -21898,7 +21898,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -21912,7 +21912,7 @@
       </c>
       <c r="D247" s="7"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="D248" s="7"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="D249" s="7"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -21968,7 +21968,7 @@
       </c>
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -21982,7 +21982,7 @@
       </c>
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -21996,7 +21996,7 @@
       </c>
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -22010,7 +22010,7 @@
       </c>
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -22024,7 +22024,7 @@
       </c>
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -22038,7 +22038,7 @@
       </c>
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -22052,7 +22052,7 @@
       </c>
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -22066,7 +22066,7 @@
       </c>
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -22094,7 +22094,7 @@
       </c>
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -22108,7 +22108,7 @@
       </c>
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -22122,7 +22122,7 @@
       </c>
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -22136,7 +22136,7 @@
       </c>
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -22150,7 +22150,7 @@
       </c>
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -22178,7 +22178,7 @@
       </c>
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -22192,7 +22192,7 @@
       </c>
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -22206,7 +22206,7 @@
       </c>
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -22234,7 +22234,7 @@
       </c>
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -22276,7 +22276,7 @@
       </c>
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -22290,7 +22290,7 @@
       </c>
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -22304,7 +22304,7 @@
       </c>
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -22318,7 +22318,7 @@
       </c>
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -22332,7 +22332,7 @@
       </c>
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -22346,7 +22346,7 @@
       </c>
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -22374,7 +22374,7 @@
       </c>
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -22646,7 +22646,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -22692,7 +22692,7 @@
       </c>
       <c r="D300" s="7"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -22706,7 +22706,7 @@
       </c>
       <c r="D301" s="7"/>
     </row>
-    <row r="302" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -22754,7 +22754,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -22770,7 +22770,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -22802,7 +22802,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A352" s="2"/>
       <c r="B352" s="3" t="str">
         <f>eBOOK!B321</f>
@@ -23518,7 +23518,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A353" s="2"/>
       <c r="B353" s="3" t="str">
         <f>eBOOK!B322</f>
@@ -23532,7 +23532,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A354" s="2"/>
       <c r="B354" s="3" t="str">
         <f>eBOOK!B323</f>
@@ -23546,7 +23546,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A355" s="2"/>
       <c r="B355" s="3" t="str">
         <f>eBOOK!B324</f>
@@ -23560,7 +23560,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A356" s="2"/>
       <c r="B356" s="3" t="str">
         <f>eBOOK!B325</f>
@@ -23574,7 +23574,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A357" s="2"/>
       <c r="B357" s="3" t="str">
         <f>eBOOK!B326</f>
@@ -23588,7 +23588,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A358" s="2"/>
       <c r="B358" s="3" t="str">
         <f>eBOOK!B327</f>
@@ -23602,7 +23602,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A359" s="2"/>
       <c r="B359" s="3" t="str">
         <f>eBOOK!B328</f>
@@ -23616,7 +23616,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A360" s="2"/>
       <c r="B360" s="3" t="str">
         <f>eBOOK!B329</f>
@@ -23630,7 +23630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A361" s="2"/>
       <c r="B361" s="3" t="str">
         <f>eBOOK!B330</f>
@@ -23644,7 +23644,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A362" s="2"/>
       <c r="B362" s="3" t="str">
         <f>eBOOK!B331</f>
@@ -23658,7 +23658,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A363" s="2"/>
       <c r="B363" s="3" t="str">
         <f>eBOOK!B332</f>
@@ -23672,7 +23672,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A364" s="2"/>
       <c r="B364" s="3" t="str">
         <f>eBOOK!B333</f>
@@ -23686,7 +23686,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A365" s="2"/>
       <c r="B365" s="3" t="str">
         <f>eBOOK!B334</f>
@@ -23700,7 +23700,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A366" s="2"/>
       <c r="B366" s="3" t="str">
         <f>eBOOK!B335</f>
@@ -23714,7 +23714,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A367" s="2"/>
       <c r="B367" s="3" t="str">
         <f>eBOOK!B336</f>
@@ -23728,7 +23728,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A368" s="2"/>
       <c r="B368" s="3" t="str">
         <f>eBOOK!B337</f>
@@ -23742,7 +23742,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A369" s="2"/>
       <c r="B369" s="3" t="str">
         <f>eBOOK!B338</f>
@@ -23756,7 +23756,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A370" s="2"/>
       <c r="B370" s="3" t="str">
         <f>eBOOK!B339</f>
@@ -23770,7 +23770,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A371" s="2"/>
       <c r="B371" s="3" t="str">
         <f>eBOOK!B340</f>
@@ -23784,7 +23784,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="3" t="str">
         <f>eBOOK!B341</f>
@@ -23798,7 +23798,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A373" s="2"/>
       <c r="B373" s="3" t="str">
         <f>eBOOK!B342</f>
@@ -23812,7 +23812,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A374" s="2"/>
       <c r="B374" s="3" t="str">
         <f>eBOOK!B343</f>
@@ -23826,7 +23826,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
       <c r="B375" s="3" t="str">
         <f>eBOOK!B344</f>
@@ -23840,7 +23840,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="3" t="str">
         <f>eBOOK!B345</f>
@@ -23854,7 +23854,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A377" s="2"/>
       <c r="B377" s="3" t="str">
         <f>eBOOK!B346</f>
@@ -23868,7 +23868,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A378" s="2"/>
       <c r="B378" s="3" t="str">
         <f>eBOOK!B347</f>
@@ -23882,7 +23882,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A379" s="2"/>
       <c r="B379" s="3" t="str">
         <f>eBOOK!B348</f>
@@ -23896,7 +23896,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
       <c r="B380" s="3" t="str">
         <f>eBOOK!B349</f>
@@ -23910,7 +23910,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A381" s="2"/>
       <c r="B381" s="3" t="str">
         <f>eBOOK!B350</f>
@@ -23924,7 +23924,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="2"/>
       <c r="B382" s="3" t="str">
         <f>eBOOK!B351</f>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="D382" s="7"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="2"/>
       <c r="B383" s="3" t="str">
         <f>eBOOK!B352</f>
@@ -23948,7 +23948,7 @@
       </c>
       <c r="D383" s="7"/>
     </row>
-    <row r="384" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B384" s="3" t="str">
         <f>eBOOK!B353</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -23961,7 +23961,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="385" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B385" s="3" t="str">
         <f>eBOOK!B354</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -23974,7 +23974,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B386" s="3" t="str">
         <f>eBOOK!B355</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -23985,7 +23985,7 @@
       </c>
       <c r="D386" s="7"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B387" s="3" t="str">
         <f>eBOOK!B356</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -23996,7 +23996,7 @@
       </c>
       <c r="D387" s="7"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B388" s="3" t="str">
         <f>eBOOK!B357</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -24007,7 +24007,7 @@
       </c>
       <c r="D388" s="7"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B389" s="3" t="str">
         <f>eBOOK!B358</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="D389" s="7"/>
     </row>
-    <row r="390" spans="2:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B390" s="3" t="str">
         <f>eBOOK!B359</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -24031,7 +24031,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B391" s="3" t="str">
         <f>eBOOK!B360</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="D391" s="7"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B392" s="3" t="str">
         <f>eBOOK!B361</f>
         <v xml:space="preserve">AULIA IMAN </v>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="D392" s="7"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B393" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24064,7 +24064,7 @@
       </c>
       <c r="D393" s="7"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B394" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="D394" s="7"/>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B395" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24086,7 +24086,7 @@
       </c>
       <c r="D395" s="7"/>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B396" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24097,7 +24097,7 @@
       </c>
       <c r="D396" s="7"/>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B397" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="D397" s="7"/>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B398" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24119,7 +24119,7 @@
       </c>
       <c r="D398" s="7"/>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B399" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24130,7 +24130,7 @@
       </c>
       <c r="D399" s="7"/>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B400" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24140,7 +24140,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="401" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" ht="406" x14ac:dyDescent="0.35">
       <c r="B401" s="3" t="str">
         <f>eBOOK!B362</f>
         <v>ALEYA ANEESA</v>
@@ -24153,7 +24153,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B402" s="3" t="str">
         <f>eBOOK!B363</f>
         <v>ALEYA ANEESA</v>
@@ -24166,7 +24166,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B403" s="3" t="str">
         <f>eBOOK!B364</f>
         <v>ALEYA ANEESA</v>
@@ -24179,7 +24179,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="B404" s="3" t="str">
         <f>eBOOK!B365</f>
         <v>ALEYA ANEESA</v>
@@ -24192,7 +24192,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" ht="319" x14ac:dyDescent="0.35">
       <c r="B405" s="3" t="str">
         <f>eBOOK!B366</f>
         <v>ALEYA ANEESA</v>
@@ -24205,7 +24205,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" ht="348" x14ac:dyDescent="0.35">
       <c r="B406" s="3" t="str">
         <f>eBOOK!B367</f>
         <v>ALEYA ANEESA</v>
@@ -24218,7 +24218,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" ht="348" x14ac:dyDescent="0.35">
       <c r="B407" s="3" t="str">
         <f>eBOOK!B368</f>
         <v>ALEYA ANEESA</v>
@@ -24231,7 +24231,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="408" spans="2:4" ht="300" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B408" s="3" t="str">
         <f>eBOOK!B369</f>
         <v>ALEYA ANEESA</v>
@@ -24244,7 +24244,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="409" spans="2:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B409" s="3" t="str">
         <f>eBOOK!B370</f>
         <v>ALEYA ANEESA</v>
@@ -24257,7 +24257,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="410" spans="2:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B410" s="3" t="str">
         <f>eBOOK!B371</f>
         <v>ALEYA ANEESA</v>
@@ -24270,7 +24270,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="2:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" ht="290" x14ac:dyDescent="0.35">
       <c r="B411" s="3" t="str">
         <f>eBOOK!B372</f>
         <v>ALEYA ANEESA</v>
@@ -24283,7 +24283,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="412" spans="2:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" ht="348" x14ac:dyDescent="0.35">
       <c r="B412" s="3" t="str">
         <f>eBOOK!B373</f>
         <v>ALEYA ANEESA</v>
@@ -24296,7 +24296,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="413" spans="2:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" ht="232" x14ac:dyDescent="0.35">
       <c r="B413" s="3" t="str">
         <f>eBOOK!B374</f>
         <v>ALEYA ANEESA</v>
@@ -24309,7 +24309,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="414" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B414" s="3" t="str">
         <f>eBOOK!B375</f>
         <v>ALEYA ANEESA</v>
@@ -24322,7 +24322,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B415" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24333,7 +24333,7 @@
       </c>
       <c r="D415" s="7"/>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B416" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="D416" s="7"/>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B417" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="D417" s="7"/>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B418" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="D418" s="7"/>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B419" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24377,7 +24377,7 @@
       </c>
       <c r="D419" s="7"/>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B420" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24388,7 +24388,7 @@
       </c>
       <c r="D420" s="7"/>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B421" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24399,7 +24399,7 @@
       </c>
       <c r="D421" s="7"/>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B422" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24410,7 +24410,7 @@
       </c>
       <c r="D422" s="7"/>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B423" s="3" t="str">
         <f>eBOOK!B376</f>
         <v>SHiMA ROSTAM</v>
@@ -24421,7 +24421,7 @@
       </c>
       <c r="D423" s="7"/>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B424" s="3" t="str">
         <f>eBOOK!B377</f>
         <v>SHIMA AWANG</v>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="D424" s="7"/>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B425" s="3" t="str">
         <f>eBOOK!B378</f>
         <v>SHIMA AWANG</v>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="D425" s="7"/>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B426" s="3" t="str">
         <f>eBOOK!B379</f>
         <v>SHIMA AWANG</v>
@@ -24454,7 +24454,7 @@
       </c>
       <c r="D426" s="7"/>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B427" s="3" t="str">
         <f>eBOOK!B380</f>
         <v>SHIMA AWANG</v>
@@ -24465,7 +24465,7 @@
       </c>
       <c r="D427" s="7"/>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B428" s="3" t="str">
         <f>eBOOK!B381</f>
         <v>SHIMA AWANG</v>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="D428" s="7"/>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B429" s="3" t="str">
         <f>eBOOK!B382</f>
         <v>SHIMA AWANG</v>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="D429" s="7"/>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B430" s="3" t="str">
         <f>eBOOK!B383</f>
         <v>SHiMA ROSTAM</v>
@@ -24498,7 +24498,7 @@
       </c>
       <c r="D430" s="7"/>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B431" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24509,7 +24509,7 @@
       </c>
       <c r="D431" s="7"/>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B432" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24520,7 +24520,7 @@
       </c>
       <c r="D432" s="7"/>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B433" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24531,7 +24531,7 @@
       </c>
       <c r="D433" s="7"/>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B434" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24542,7 +24542,7 @@
       </c>
       <c r="D434" s="7"/>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B435" s="3" t="str">
         <f>eBOOK!B384</f>
         <v>SHIMA AWANG</v>
@@ -24553,7 +24553,7 @@
       </c>
       <c r="D435" s="7"/>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B436" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24564,7 +24564,7 @@
       </c>
       <c r="D436" s="7"/>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B437" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24575,7 +24575,7 @@
       </c>
       <c r="D437" s="7"/>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B438" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D438" s="7"/>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B439" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24597,7 +24597,7 @@
       </c>
       <c r="D439" s="7"/>
     </row>
-    <row r="440" spans="2:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B440" s="3" t="str">
         <f>eBOOK!B385</f>
         <v>FAHIZAH REENA</v>
@@ -24610,7 +24610,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="441" spans="2:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" ht="319" x14ac:dyDescent="0.35">
       <c r="B441" s="3" t="str">
         <f>eBOOK!B386</f>
         <v>FAHIZAH REENA</v>
@@ -24623,7 +24623,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="442" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" ht="406" x14ac:dyDescent="0.35">
       <c r="B442" s="3" t="str">
         <f>eBOOK!B387</f>
         <v>FAHIZAH REENA</v>
@@ -24636,7 +24636,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="443" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" ht="406" x14ac:dyDescent="0.35">
       <c r="B443" s="3" t="str">
         <f>eBOOK!B388</f>
         <v>FAHIZAH REENA</v>
@@ -24649,7 +24649,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="444" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" ht="406" x14ac:dyDescent="0.35">
       <c r="B444" s="3" t="str">
         <f>eBOOK!B389</f>
         <v>FAHIZAH REENA</v>
@@ -24662,7 +24662,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="445" spans="2:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="B445" s="3" t="str">
         <f>eBOOK!B390</f>
         <v>FAHIZAH REENA</v>
@@ -24675,7 +24675,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="446" spans="2:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" ht="348" x14ac:dyDescent="0.35">
       <c r="B446" s="3" t="str">
         <f>eBOOK!B391</f>
         <v>FAHIZAH REENA</v>
@@ -24688,7 +24688,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="447" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B447" s="3" t="str">
         <f>eBOOK!B392</f>
         <v>FAHIZAH REENA</v>
@@ -24701,7 +24701,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="448" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="B448" s="3" t="str">
         <f>eBOOK!B393</f>
         <v>FAHIZAH REENA</v>
@@ -24714,7 +24714,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="449" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B449" s="3" t="str">
         <f>eBOOK!B394</f>
         <v>FAHIZAH REENA</v>
@@ -24727,7 +24727,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="450" spans="2:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" ht="232" x14ac:dyDescent="0.35">
       <c r="B450" s="3" t="str">
         <f>eBOOK!B395</f>
         <v>FAHIZAH REENA</v>
@@ -24740,7 +24740,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="451" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" ht="406" x14ac:dyDescent="0.35">
       <c r="B451" s="3" t="str">
         <f>eBOOK!B396</f>
         <v>FAHIZAH REENA</v>
@@ -24753,7 +24753,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="2:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B452" s="3" t="str">
         <f>eBOOK!B397</f>
         <v>FAHIZAH REENA</v>
@@ -24766,7 +24766,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B453" s="3" t="str">
         <f>eBOOK!B398</f>
         <v>FAHIZAH REENA</v>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="D453" s="7"/>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B454" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24788,7 +24788,7 @@
       </c>
       <c r="D454" s="7"/>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B455" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24799,7 +24799,7 @@
       </c>
       <c r="D455" s="7"/>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B456" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="D456" s="7"/>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B457" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24821,7 +24821,7 @@
       </c>
       <c r="D457" s="7"/>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B458" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24832,7 +24832,7 @@
       </c>
       <c r="D458" s="7"/>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B459" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24843,7 +24843,7 @@
       </c>
       <c r="D459" s="7"/>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B460" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24854,7 +24854,7 @@
       </c>
       <c r="D460" s="7"/>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B461" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24865,7 +24865,7 @@
       </c>
       <c r="D461" s="7"/>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B462" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="D462" s="7"/>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B463" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24887,7 +24887,7 @@
       </c>
       <c r="D463" s="7"/>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B464" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24898,7 +24898,7 @@
       </c>
       <c r="D464" s="7"/>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B465" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="D465" s="7"/>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B466" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="D466" s="7"/>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B467" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24931,7 +24931,7 @@
       </c>
       <c r="D467" s="7"/>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B468" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24942,7 +24942,7 @@
       </c>
       <c r="D468" s="7"/>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B469" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="D469" s="7"/>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B470" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -24964,7 +24964,7 @@
       </c>
       <c r="D470" s="7"/>
     </row>
-    <row r="471" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B471" s="3" t="str">
         <f>eBOOK!B399</f>
         <v>IDA ANUAR</v>
@@ -24977,7 +24977,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="472" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B472" s="3" t="str">
         <f>eBOOK!B400</f>
         <v>IDA ANUAR</v>
@@ -24990,7 +24990,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="473" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B473" s="3" t="str">
         <f>eBOOK!B401</f>
         <v>IDA ANUAR</v>
@@ -25003,7 +25003,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="474" spans="2:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" ht="290" x14ac:dyDescent="0.35">
       <c r="B474" s="3" t="str">
         <f>eBOOK!B402</f>
         <v>IDA ANUAR</v>
@@ -25016,7 +25016,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="475" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B475" s="3" t="str">
         <f>eBOOK!B403</f>
         <v>IDA ANUAR</v>
@@ -25029,7 +25029,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="476" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B476" s="3" t="str">
         <f>eBOOK!B404</f>
         <v>IDA ANUAR</v>
@@ -25042,7 +25042,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="477" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B477" s="3" t="str">
         <f>eBOOK!B405</f>
         <v>IDA ANUAR</v>
@@ -25055,7 +25055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="478" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B478" s="3" t="str">
         <f>eBOOK!B406</f>
         <v>IDA ANUAR</v>
@@ -25068,7 +25068,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="479" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B479" s="3" t="str">
         <f>eBOOK!B407</f>
         <v>IDA ANUAR</v>
@@ -25081,7 +25081,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="480" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B480" s="3" t="str">
         <f>eBOOK!B408</f>
         <v>IDA ANUAR</v>
@@ -25094,7 +25094,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="481" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B481" s="3" t="str">
         <f>eBOOK!B409</f>
         <v>IDA ANUAR</v>
@@ -25107,7 +25107,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="482" spans="2:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" ht="290" x14ac:dyDescent="0.35">
       <c r="B482" s="3" t="str">
         <f>eBOOK!B410</f>
         <v>IDA ANUAR</v>
@@ -25120,7 +25120,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="483" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B483" s="3" t="str">
         <f>eBOOK!B411</f>
         <v>SARA IRDINA</v>
@@ -25133,7 +25133,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="484" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B484" s="3" t="str">
         <f>eBOOK!B412</f>
         <v>SARA IRDINA</v>
@@ -25146,7 +25146,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="485" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B485" s="3" t="str">
         <f>eBOOK!B413</f>
         <v>SARA IRDINA</v>
@@ -25159,7 +25159,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="486" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B486" s="3" t="str">
         <f>eBOOK!B414</f>
         <v>SARA IRDINA</v>
@@ -25172,7 +25172,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="487" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B487" s="3" t="str">
         <f>eBOOK!B415</f>
         <v>SARA IRDINA</v>
@@ -25185,7 +25185,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="488" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B488" s="3" t="str">
         <f>eBOOK!B416</f>
         <v>SARA IRDINA</v>
@@ -25198,7 +25198,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="489" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B489" s="3" t="str">
         <f>eBOOK!B417</f>
         <v>SARA IRDINA</v>
@@ -25211,7 +25211,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="490" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B490" s="3" t="str">
         <f>eBOOK!B418</f>
         <v>SARA IRDINA</v>
@@ -25224,7 +25224,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="491" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B491" s="3" t="str">
         <f>eBOOK!B419</f>
         <v>SARA IRDINA</v>
@@ -25237,7 +25237,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="492" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B492" s="3" t="str">
         <f>eBOOK!B420</f>
         <v>SARA IRDINA</v>
@@ -25250,7 +25250,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="493" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B493" s="3" t="str">
         <f>eBOOK!B421</f>
         <v>SARA IRDINA</v>
@@ -25263,7 +25263,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="494" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B494" s="3" t="str">
         <f>eBOOK!B422</f>
         <v>SARA IRDINA</v>
@@ -25276,7 +25276,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="495" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B495" s="3" t="str">
         <f>eBOOK!B423</f>
         <v>SARA IRDINA</v>
@@ -25289,7 +25289,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="496" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B496" s="3" t="str">
         <f>eBOOK!B424</f>
         <v>SARA IRDINA</v>
@@ -25302,7 +25302,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="497" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B497" s="3" t="str">
         <f>eBOOK!B425</f>
         <v>SARA IRDINA</v>
@@ -25315,7 +25315,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="498" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B498" s="3" t="str">
         <f>eBOOK!B426</f>
         <v>SARA IRDINA</v>
@@ -25328,7 +25328,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="499" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B499" s="3" t="str">
         <f>eBOOK!B427</f>
         <v>SARA IRDINA</v>
@@ -25341,7 +25341,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="500" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B500" s="3" t="str">
         <f>eBOOK!B428</f>
         <v>SARA IRDINA</v>
@@ -25354,7 +25354,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="501" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B501" s="3" t="str">
         <f>eBOOK!B429</f>
         <v>SARA IRDINA</v>
@@ -25367,7 +25367,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="502" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B502" s="3" t="str">
         <f>eBOOK!B430</f>
         <v>SARA IRDINA</v>
@@ -25380,7 +25380,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="503" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B503" s="3" t="str">
         <f>eBOOK!B431</f>
         <v>MUNA MAHIRA</v>
@@ -25393,7 +25393,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="504" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B504" s="3" t="str">
         <f>eBOOK!B432</f>
         <v>MUNA MAHIRA</v>
@@ -25406,7 +25406,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="505" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B505" s="3" t="str">
         <f>eBOOK!B433</f>
         <v>MUNA MAHIRA</v>
@@ -25419,7 +25419,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="506" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B506" s="3" t="str">
         <f>eBOOK!B434</f>
         <v>MUNA MAHIRA</v>
@@ -25432,7 +25432,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="507" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B507" s="3" t="str">
         <f>eBOOK!B435</f>
         <v>MUNA MAHIRA</v>
@@ -25445,7 +25445,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="508" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B508" s="3" t="str">
         <f>eBOOK!B436</f>
         <v>MUNA MAHIRA</v>
@@ -25458,7 +25458,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B509" s="3" t="str">
         <f>eBOOK!B437</f>
         <v>MUNA MAHIRA</v>
@@ -25471,7 +25471,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="510" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B510" s="3" t="str">
         <f>eBOOK!B438</f>
         <v>MUNA MAHIRA</v>
@@ -25484,7 +25484,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="511" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B511" s="3" t="str">
         <f>eBOOK!B439</f>
         <v>MUNA MAHIRA</v>
@@ -25497,7 +25497,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="512" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B512" s="3" t="str">
         <f>eBOOK!B440</f>
         <v>MUNA MAHIRA</v>
@@ -25510,7 +25510,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="513" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B513" s="3" t="str">
         <f>eBOOK!B441</f>
         <v>MUNA MAHIRA</v>
@@ -25523,7 +25523,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="514" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B514" s="3" t="str">
         <f>eBOOK!B442</f>
         <v>MUNA MAHIRA</v>
@@ -25536,7 +25536,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="515" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B515" s="3" t="str">
         <f>eBOOK!B443</f>
         <v>MUNA MAHIRA</v>
@@ -25549,7 +25549,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B516" s="3" t="str">
         <f>eBOOK!B444</f>
         <v>MUNA MAHIRA</v>
@@ -25560,7 +25560,7 @@
       </c>
       <c r="D516" s="3"/>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B517" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="D517" s="8"/>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B518" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B519" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25593,7 +25593,7 @@
       </c>
       <c r="D519" s="8"/>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B520" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25604,7 +25604,7 @@
       </c>
       <c r="D520" s="3"/>
     </row>
-    <row r="521" spans="2:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B521" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25617,7 +25617,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="522" spans="2:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:4" ht="232" x14ac:dyDescent="0.35">
       <c r="B522" s="3" t="str">
         <f>eBOOK!B445</f>
         <v>PENA MERAH</v>
@@ -25630,7 +25630,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="523" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:4" ht="203" x14ac:dyDescent="0.35">
       <c r="B523" s="3" t="str">
         <f>eBOOK!B446</f>
         <v>PENA MERAH</v>
@@ -25643,7 +25643,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="524" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B524" s="3" t="str">
         <f>eBOOK!B447</f>
         <v>PENA MERAH</v>
@@ -25656,7 +25656,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="525" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B525" s="3" t="str">
         <f>eBOOK!B448</f>
         <v>PENA MERAH</v>
@@ -25669,7 +25669,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="526" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B526" s="3" t="str">
         <f>eBOOK!B449</f>
         <v>PENA MERAH</v>
@@ -25682,7 +25682,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="527" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B527" s="3" t="str">
         <f>eBOOK!B450</f>
         <v>PENA MERAH</v>
@@ -25695,7 +25695,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="528" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B528" s="3" t="str">
         <f>eBOOK!B451</f>
         <v>PENA MERAH</v>
@@ -25708,7 +25708,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="529" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B529" s="3" t="str">
         <f>eBOOK!B452</f>
         <v>PENA MERAH</v>
@@ -25721,7 +25721,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="530" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B530" s="3" t="str">
         <f>eBOOK!B453</f>
         <v>PENA MERAH</v>
@@ -25734,7 +25734,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="531" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B531" s="3" t="str">
         <f>eBOOK!B454</f>
         <v>PENA MERAH</v>
@@ -25747,7 +25747,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="532" spans="2:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B532" s="3" t="str">
         <f>eBOOK!B455</f>
         <v>PENA MERAH</v>
@@ -25760,7 +25760,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="533" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B533" s="3" t="str">
         <f>eBOOK!B456</f>
         <v>PENA MERAH</v>
@@ -25773,7 +25773,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="534" spans="2:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B534" s="3" t="str">
         <f>eBOOK!B457</f>
         <v>PENA MERAH</v>
@@ -25786,7 +25786,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="535" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:4" ht="203" x14ac:dyDescent="0.35">
       <c r="B535" s="3" t="str">
         <f>eBOOK!B458</f>
         <v>PENA MERAH</v>
@@ -25799,7 +25799,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="536" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B536" s="3" t="str">
         <f>eBOOK!B459</f>
         <v>ILLA SHANAHILA</v>
@@ -25812,7 +25812,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="537" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B537" s="3" t="str">
         <f>eBOOK!B460</f>
         <v>ILLA SHANAHILA</v>
@@ -25825,7 +25825,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="538" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B538" s="3" t="str">
         <f>eBOOK!B461</f>
         <v>ILLA SHANAHILA</v>
@@ -25838,7 +25838,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="539" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B539" s="3" t="str">
         <f>eBOOK!B462</f>
         <v>ILLA SHANAHILA</v>
@@ -25851,7 +25851,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="540" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B540" s="3" t="str">
         <f>eBOOK!B463</f>
         <v>ILLA SHANAHILA</v>
@@ -25864,7 +25864,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="541" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B541" s="3" t="str">
         <f>eBOOK!B464</f>
         <v>ILLA SHANAHILA</v>
@@ -25877,7 +25877,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="542" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B542" s="3" t="str">
         <f>eBOOK!B465</f>
         <v>ILLA SHANAHILA</v>
@@ -25890,7 +25890,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="543" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B543" s="3" t="str">
         <f>eBOOK!B466</f>
         <v>ILLA SHANAHILA</v>
@@ -25903,7 +25903,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="544" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B544" s="3" t="str">
         <f>eBOOK!B467</f>
         <v>ILLA SHANAHILA</v>
@@ -25916,7 +25916,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B545" s="3" t="str">
         <f>eBOOK!B468</f>
         <v>ILLA SHANAHILA</v>
@@ -25929,7 +25929,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B546" s="3" t="str">
         <f>eBOOK!B469</f>
         <v>ILLA SHANAHILA</v>
@@ -25942,7 +25942,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B547" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="D547" s="23"/>
     </row>
-    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B548" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25964,7 +25964,7 @@
       </c>
       <c r="D548" s="23"/>
     </row>
-    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B549" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25975,7 +25975,7 @@
       </c>
       <c r="D549" s="23"/>
     </row>
-    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B550" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25986,7 +25986,7 @@
       </c>
       <c r="D550" s="23"/>
     </row>
-    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B551" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -25997,7 +25997,7 @@
       </c>
       <c r="D551" s="23"/>
     </row>
-    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B552" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26008,7 +26008,7 @@
       </c>
       <c r="D552" s="23"/>
     </row>
-    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B553" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26019,7 +26019,7 @@
       </c>
       <c r="D553" s="23"/>
     </row>
-    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B554" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26030,7 +26030,7 @@
       </c>
       <c r="D554" s="23"/>
     </row>
-    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B555" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26041,7 +26041,7 @@
       </c>
       <c r="D555" s="23"/>
     </row>
-    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B556" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="D556" s="23"/>
     </row>
-    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B557" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="D557" s="23"/>
     </row>
-    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B558" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="D558" s="23"/>
     </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B559" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26085,7 +26085,7 @@
       </c>
       <c r="D559" s="23"/>
     </row>
-    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B560" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26096,7 +26096,7 @@
       </c>
       <c r="D560" s="23"/>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B561" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="D561" s="23"/>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B562" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26118,7 +26118,7 @@
       </c>
       <c r="D562" s="23"/>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B563" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26129,7 +26129,7 @@
       </c>
       <c r="D563" s="23"/>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B564" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26140,7 +26140,7 @@
       </c>
       <c r="D564" s="23"/>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B565" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26151,7 +26151,7 @@
       </c>
       <c r="D565" s="23"/>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B566" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26162,7 +26162,7 @@
       </c>
       <c r="D566" s="23"/>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B567" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="D567" s="23"/>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B568" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26184,7 +26184,7 @@
       </c>
       <c r="D568" s="23"/>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B569" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="D569" s="23"/>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B570" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="D570" s="23"/>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B571" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="D571" s="23"/>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B572" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26228,7 +26228,7 @@
       </c>
       <c r="D572" s="23"/>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B573" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26239,7 +26239,7 @@
       </c>
       <c r="D573" s="23"/>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B574" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26250,7 +26250,7 @@
       </c>
       <c r="D574" s="23"/>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B575" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26261,7 +26261,7 @@
       </c>
       <c r="D575" s="23"/>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B576" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26272,7 +26272,7 @@
       </c>
       <c r="D576" s="23"/>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B577" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="D577" s="23"/>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B578" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26294,7 +26294,7 @@
       </c>
       <c r="D578" s="23"/>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B579" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="D579" s="23"/>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B580" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26316,7 +26316,7 @@
       </c>
       <c r="D580" s="23"/>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B581" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26327,7 +26327,7 @@
       </c>
       <c r="D581" s="23"/>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B582" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26338,7 +26338,7 @@
       </c>
       <c r="D582" s="23"/>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B583" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26349,7 +26349,7 @@
       </c>
       <c r="D583" s="23"/>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B584" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26360,7 +26360,7 @@
       </c>
       <c r="D584" s="23"/>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B585" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26371,7 +26371,7 @@
       </c>
       <c r="D585" s="23"/>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B586" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26382,7 +26382,7 @@
       </c>
       <c r="D586" s="23"/>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B587" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26393,7 +26393,7 @@
       </c>
       <c r="D587" s="23"/>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B588" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26404,7 +26404,7 @@
       </c>
       <c r="D588" s="23"/>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B589" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26415,7 +26415,7 @@
       </c>
       <c r="D589" s="23"/>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B590" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="D590" s="23"/>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B591" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26437,7 +26437,7 @@
       </c>
       <c r="D591" s="23"/>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B592" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26448,7 +26448,7 @@
       </c>
       <c r="D592" s="23"/>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B593" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="D593" s="23"/>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B594" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26470,7 +26470,7 @@
       </c>
       <c r="D594" s="23"/>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B595" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26481,7 +26481,7 @@
       </c>
       <c r="D595" s="23"/>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B596" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26492,7 +26492,7 @@
       </c>
       <c r="D596" s="23"/>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B597" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26503,7 +26503,7 @@
       </c>
       <c r="D597" s="23"/>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B598" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26514,7 +26514,7 @@
       </c>
       <c r="D598" s="23"/>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B599" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
@@ -26525,7 +26525,7 @@
       </c>
       <c r="D599" s="23"/>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B600" s="3" t="e">
         <f>eBOOK!#REF!</f>
         <v>#REF!</v>
